--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342460.7864812759</v>
+        <v>334827.9066047807</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>17287498.18481128</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129925</v>
+        <v>2706694.536732692</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6825140.771310529</v>
+        <v>7188838.50897542</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>126.8095555173668</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>75.37045857273884</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -874,7 +876,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>86.91406253606281</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.5836942203894</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>155.9995894427411</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -950,7 +952,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -959,10 +961,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>73.01514676193496</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>338.1416063946942</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>87.50755336022249</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1370,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>174.8095987446695</v>
       </c>
       <c r="G11" t="n">
-        <v>28.60468344882653</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1427,13 +1429,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>164.9135579823459</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.79204496222323</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>52.58860332093185</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1777,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>3.139541480022953</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>120.122206759728</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2008,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>47.61404849749822</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2573,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2843,7 +2845,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3047,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225717</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225717</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>45.91568880648689</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1332.680795009322</v>
+        <v>1437.776784721425</v>
       </c>
       <c r="C2" t="n">
-        <v>1204.590334890769</v>
+        <v>999.6343119048488</v>
       </c>
       <c r="D2" t="n">
-        <v>1204.590334890769</v>
+        <v>563.7245270792932</v>
       </c>
       <c r="E2" t="n">
-        <v>770.8155900490646</v>
+        <v>129.9497822375884</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>129.9497822375884</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>129.9497822375884</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148856</v>
@@ -4331,16 +4333,16 @@
         <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362199</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362199</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362199</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2586.408952615265</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X2" t="n">
-        <v>2167.266489194576</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y2" t="n">
-        <v>1758.980365494229</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4406,28 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>397.8892067392438</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>397.8892067392438</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>397.8892067392438</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M3" t="n">
-        <v>397.8892067392438</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N3" t="n">
-        <v>397.8892067392438</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392438</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D4" t="n">
         <v>794.0196728252577</v>
@@ -4483,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4522,16 +4524,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1877.297206906698</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1605.270802492989</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1359.879047826402</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1132.45937714051</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>345.1411632272197</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="C5" t="n">
-        <v>345.1411632272197</v>
+        <v>901.504545333604</v>
       </c>
       <c r="D5" t="n">
-        <v>345.1411632272197</v>
+        <v>901.504545333604</v>
       </c>
       <c r="E5" t="n">
-        <v>342.5313710854123</v>
+        <v>901.504545333604</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
         <v>342.5313710854123</v>
@@ -4565,28 +4567,28 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4598,19 +4600,19 @@
         <v>2366.341725488304</v>
       </c>
       <c r="U5" t="n">
-        <v>2366.341725488304</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.72477542213</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W5" t="n">
-        <v>1598.869320833164</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X5" t="n">
-        <v>1179.726857412474</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="Y5" t="n">
-        <v>771.4407337121276</v>
+        <v>1339.647018150181</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1224.223655672616</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>1224.223655672616</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="D8" t="n">
-        <v>1224.223655672616</v>
+        <v>575.5674294109622</v>
       </c>
       <c r="E8" t="n">
-        <v>882.6664774961569</v>
+        <v>141.7926845692573</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
         <v>53.40121652862857</v>
@@ -4811,10 +4813,10 @@
         <v>632.7278666362199</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4835,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.221573682272</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1643.366119093305</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1224.223655672616</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1224.223655672616</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4895,13 @@
         <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862857</v>
@@ -4987,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2107.119422805321</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="C11" t="n">
-        <v>1668.976949988744</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="D11" t="n">
-        <v>1233.067165163189</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="E11" t="n">
-        <v>799.2924203214839</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="F11" t="n">
-        <v>371.4249907306916</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G11" t="n">
         <v>342.5313710854123</v>
@@ -5039,28 +5041,28 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M11" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N11" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5075,16 +5077,16 @@
         <v>2107.119422805321</v>
       </c>
       <c r="V11" t="n">
-        <v>2107.119422805321</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W11" t="n">
-        <v>2107.119422805321</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X11" t="n">
-        <v>2107.119422805321</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y11" t="n">
-        <v>2107.119422805321</v>
+        <v>920.5045547294914</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5123,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>900.7186013536161</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1568898368411</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D13" t="n">
-        <v>562.2788970383638</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E13" t="n">
         <v>395.6995455410447</v>
@@ -5221,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T13" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U13" t="n">
-        <v>2124.330557968361</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V13" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W13" t="n">
-        <v>1565.348645425083</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.956890758495</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y13" t="n">
-        <v>1092.537220072603</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>487.1759613703334</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C14" t="n">
-        <v>487.1759613703334</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D14" t="n">
-        <v>487.1759613703334</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E14" t="n">
-        <v>53.40121652862857</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I14" t="n">
         <v>53.40121652862857</v>
@@ -5291,37 +5293,37 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T14" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U14" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V14" t="n">
-        <v>1744.502472739147</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W14" t="n">
-        <v>1339.647018150181</v>
+        <v>2616.941025097154</v>
       </c>
       <c r="X14" t="n">
-        <v>920.5045547294914</v>
+        <v>2197.798561676464</v>
       </c>
       <c r="Y14" t="n">
-        <v>512.2184310291448</v>
+        <v>1789.512437976118</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>56.57247054885377</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>56.57247054885377</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H16" t="n">
         <v>53.40121652862857</v>
@@ -5458,28 +5460,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1316.441222337862</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1316.441222337862</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1316.441222337862</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>882.6664774961569</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>454.7990479053647</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862857</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1149.495958523325</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1149.495958523325</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="N17" t="n">
-        <v>1149.495958523325</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O17" t="n">
-        <v>1293.567921177998</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719777</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678372</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>2548.725264047865</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>2143.869809458898</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>1724.727346038208</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>1316.441222337862</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46488968908616</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>404.0232146552985</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K18" t="n">
-        <v>1058.729261281022</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L18" t="n">
-        <v>1058.729261281022</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="M18" t="n">
-        <v>1058.729261281022</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="N18" t="n">
-        <v>1058.729261281022</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="O18" t="n">
-        <v>1058.729261281022</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>903.8972536055599</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C19" t="n">
-        <v>731.3355420887848</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D19" t="n">
-        <v>565.4575492903075</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6995455410447</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862857</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.825451691258</v>
       </c>
       <c r="T19" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.946005269713</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.509210220304</v>
+        <v>2146.513004522818</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.553702090735</v>
+        <v>1859.557496393248</v>
       </c>
       <c r="W19" t="n">
-        <v>1568.527297677026</v>
+        <v>1587.53109197954</v>
       </c>
       <c r="X19" t="n">
-        <v>1323.135543010439</v>
+        <v>1342.139337312952</v>
       </c>
       <c r="Y19" t="n">
-        <v>1095.715872324547</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>228.524776110223</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1303.584742363082</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2460.632577573633</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3586.36356101008</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>3346.878440713112</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>3174.316729196337</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>3008.43873639786</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>2838.680732648597</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>5094.802844496296</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>4848.923398074751</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>4570.490397327857</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>4283.534889198288</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>4011.508484784579</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>3766.116730117991</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>3538.6970594321</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6169,7 +6171,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S25" t="n">
         <v>2700.681281130895</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,43 +6235,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423628</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6445,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436396</v>
@@ -6470,25 +6472,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
         <v>4809.322912595856</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7184,40 +7186,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7397,13 +7399,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7448,13 +7450,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.095648603258</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>1350.953175786681</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
-        <v>915.0433909611256</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>481.2686461194209</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>53.40121652862857</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862857</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862857</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1149.495958523325</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1810.336013065103</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1810.336013065103</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>1810.336013065103</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O44" t="n">
-        <v>2123.562040472834</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P44" t="n">
-        <v>2123.562040472834</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
-        <v>2670.060826431428</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2623.681342788512</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2215.395219088166</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I45" t="n">
-        <v>79.46488968908616</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J45" t="n">
-        <v>404.0232146552985</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K45" t="n">
-        <v>1064.863269197077</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L45" t="n">
-        <v>1064.863269197077</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M45" t="n">
-        <v>1064.863269197077</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N45" t="n">
-        <v>1064.863269197077</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O45" t="n">
-        <v>1064.863269197077</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P45" t="n">
-        <v>1064.863269197077</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>4995.869235444639</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>5049.586575987362</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>4919.407932317964</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>4743.071385317932</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.1364226482442</v>
+        <v>3346.878440713112</v>
       </c>
       <c r="C46" t="n">
-        <v>749.5747111314691</v>
+        <v>3174.316729196336</v>
       </c>
       <c r="D46" t="n">
-        <v>583.6967183329918</v>
+        <v>3008.438736397859</v>
       </c>
       <c r="E46" t="n">
-        <v>413.9387145837291</v>
+        <v>2838.680732648596</v>
       </c>
       <c r="F46" t="n">
-        <v>237.2316605454853</v>
+        <v>2661.973678610353</v>
       </c>
       <c r="G46" t="n">
-        <v>71.64038557131298</v>
+        <v>2496.38240363618</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862857</v>
+        <v>2496.38240363618</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862857</v>
+        <v>2496.38240363618</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933184</v>
+        <v>2582.96208880087</v>
       </c>
       <c r="K46" t="n">
-        <v>414.739356264454</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324151</v>
+        <v>3275.930425139966</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>3735.414292320879</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370973</v>
+        <v>4177.673095478523</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>4597.342344704306</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>4944.849238674647</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R46" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S46" t="n">
-        <v>2670.060826431428</v>
+        <v>5094.802844496295</v>
       </c>
       <c r="T46" t="n">
-        <v>2424.181380009883</v>
+        <v>4848.92339807475</v>
       </c>
       <c r="U46" t="n">
-        <v>2145.748379262989</v>
+        <v>4570.490397327856</v>
       </c>
       <c r="V46" t="n">
-        <v>1858.792871133419</v>
+        <v>4283.534889198287</v>
       </c>
       <c r="W46" t="n">
-        <v>1586.766466719711</v>
+        <v>4011.508484784578</v>
       </c>
       <c r="X46" t="n">
-        <v>1341.374712053123</v>
+        <v>3766.11673011799</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.955041367231</v>
+        <v>3538.697059432099</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>585.1784344521125</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>321.6407242930885</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O5" t="n">
-        <v>640.544895229762</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8380,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8459,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.5152066078571</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.5152066078572</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>640.544895229762</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8771,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,22 +9166,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>980.0845558810993</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>145.5272350047208</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>388.0185734358511</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>127.5393291307509</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11297,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>667.5152066078572</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O44" t="n">
-        <v>316.3899266744752</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>306.9514925710441</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>210.8683944384771</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -22607,7 +22609,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22762,7 +22764,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>197.171890512211</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>426.8533031728983</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>267.5891658521433</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22838,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22847,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22954,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>65.48800580459427</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -22996,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>91.29539099859352</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>336.0812019346619</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23075,10 +23077,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23194,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23258,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>248.7791565502148</v>
       </c>
       <c r="G11" t="n">
-        <v>368.7791696141422</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>397.2445298178355</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>348.2182967221452</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.3636110865063</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>238.8685738057837</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>208.2197249473435</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142721</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142721</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.0353499799955</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465871.2706068046</v>
+        <v>465871.2706068047</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465871.2706068047</v>
+        <v>465871.2706068046</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465871.2706068046</v>
+        <v>465871.2706068047</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465871.2706068047</v>
+        <v>465871.2706068046</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465871.2706068046</v>
+        <v>725766.3460702405</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725766.3460702406</v>
+        <v>725766.3460702405</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>725766.3460702406</v>
+        <v>725766.3460702405</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465871.2706068046</v>
+        <v>725766.3460702405</v>
       </c>
     </row>
   </sheetData>
@@ -26326,7 +26328,7 @@
         <v>169095.6142289526</v>
       </c>
       <c r="G2" t="n">
-        <v>169095.6142289526</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="H2" t="n">
         <v>263428.7920686761</v>
@@ -26353,7 +26355,7 @@
         <v>263428.7920686761</v>
       </c>
       <c r="P2" t="n">
-        <v>169095.6142289526</v>
+        <v>263428.7920686761</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>167396.1246670934</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>146976.4664146549</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,34 +26432,34 @@
         <v>43649.82185483626</v>
       </c>
       <c r="G4" t="n">
-        <v>43649.82185483626</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="H4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="P4" t="n">
-        <v>43649.82185483626</v>
+        <v>68000.69828933279</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>77718.23860579249</v>
       </c>
     </row>
     <row r="6">
@@ -26522,34 +26524,34 @@
         <v>-172466.4307716863</v>
       </c>
       <c r="C6" t="n">
-        <v>51233.26781235861</v>
+        <v>51233.26781235858</v>
       </c>
       <c r="D6" t="n">
-        <v>51233.26781235864</v>
+        <v>51233.26781235865</v>
       </c>
       <c r="E6" t="n">
-        <v>84860.86781235864</v>
+        <v>84860.86781235861</v>
       </c>
       <c r="F6" t="n">
-        <v>84860.86781235866</v>
+        <v>84860.86781235867</v>
       </c>
       <c r="G6" t="n">
-        <v>84860.86781235861</v>
+        <v>-49686.2694935426</v>
       </c>
       <c r="H6" t="n">
-        <v>-47074.72260452469</v>
+        <v>117709.8551735508</v>
       </c>
       <c r="I6" t="n">
         <v>117709.8551735508</v>
       </c>
       <c r="J6" t="n">
-        <v>-56941.49354415541</v>
+        <v>-56941.49354415534</v>
       </c>
       <c r="K6" t="n">
         <v>117709.8551735508</v>
       </c>
       <c r="L6" t="n">
-        <v>117709.8551735507</v>
+        <v>117709.8551735508</v>
       </c>
       <c r="M6" t="n">
         <v>117709.8551735508</v>
@@ -26558,10 +26560,10 @@
         <v>117709.8551735508</v>
       </c>
       <c r="O6" t="n">
+        <v>-29266.61124110408</v>
+      </c>
+      <c r="P6" t="n">
         <v>117709.8551735508</v>
-      </c>
-      <c r="P6" t="n">
-        <v>84860.86781235864</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26804,7 @@
         <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768883</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768883</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>585.1784344521125</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>321.6407242930885</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O5" t="n">
-        <v>640.544895229762</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35179,13 +35181,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.5152066078571</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.5152066078572</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>640.544895229762</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>980.0845558810993</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>145.5272350047208</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889939</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>388.0185734358511</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>127.5393291307509</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36601,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36613,10 +36615,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37312,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37552,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>667.5152066078572</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O44" t="n">
-        <v>316.3899266744752</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>334827.9066047807</v>
+        <v>332162.9391366232</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2706694.536732692</v>
+        <v>2706694.536732691</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -670,16 +670,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>54.55340531488891</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>75.37045857273884</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8834167598887</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170477</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>155.9995894427411</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>307.0226639370374</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H7" t="n">
-        <v>73.01514676193496</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>21.77975057386963</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>87.50755336022249</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>174.8095987446695</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>170.898757795992</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>125.1084874124853</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>52.58860332093185</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948845</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -2010,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.61404849749822</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.036574780059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>75.86622810093029</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225719</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225719</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1437.776784721425</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="C2" t="n">
-        <v>999.6343119048488</v>
+        <v>978.1901960089081</v>
       </c>
       <c r="D2" t="n">
-        <v>563.7245270792932</v>
+        <v>542.2804111833525</v>
       </c>
       <c r="E2" t="n">
-        <v>129.9497822375884</v>
+        <v>108.5056663416477</v>
       </c>
       <c r="F2" t="n">
-        <v>129.9497822375884</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>129.9497822375884</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4369,13 +4369,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y2" t="n">
-        <v>1437.776784721425</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>794.0196728252577</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C4" t="n">
-        <v>794.0196728252577</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1339.647018150181</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="C5" t="n">
-        <v>901.504545333604</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>901.504545333604</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>901.504545333604</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862857</v>
@@ -4573,13 +4573,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.119422805321</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739147</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.647018150181</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="X5" t="n">
-        <v>1339.647018150181</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1339.647018150181</v>
+        <v>1777.252746271589</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>900.7186013536161</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1568898368411</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D7" t="n">
-        <v>562.2788970383638</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E7" t="n">
-        <v>392.520893289101</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F7" t="n">
-        <v>215.8138392508572</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G7" t="n">
-        <v>215.8138392508572</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862857</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2124.330557968361</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.375049838791</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1565.348645425083</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1319.956890758495</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1092.537220072603</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>937.0431390155394</v>
       </c>
       <c r="C8" t="n">
-        <v>1011.477214236518</v>
+        <v>937.0431390155394</v>
       </c>
       <c r="D8" t="n">
-        <v>575.5674294109622</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>141.7926845692573</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362199</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362199</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362199</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1771.628833200794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1363.342709500447</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C10" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D10" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E10" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F10" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V10" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X10" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y10" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>920.5045547294914</v>
+        <v>1327.133054936506</v>
       </c>
       <c r="C11" t="n">
-        <v>920.5045547294914</v>
+        <v>888.9905821199295</v>
       </c>
       <c r="D11" t="n">
-        <v>920.5045547294914</v>
+        <v>888.9905821199295</v>
       </c>
       <c r="E11" t="n">
-        <v>920.5045547294914</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="F11" t="n">
-        <v>743.9292024621484</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G11" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
         <v>488.6559039815464</v>
@@ -5059,10 +5059,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5071,22 +5071,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U11" t="n">
-        <v>2107.119422805321</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V11" t="n">
-        <v>1744.502472739147</v>
+        <v>2154.561642057542</v>
       </c>
       <c r="W11" t="n">
-        <v>1339.647018150181</v>
+        <v>2154.561642057542</v>
       </c>
       <c r="X11" t="n">
-        <v>920.5045547294914</v>
+        <v>1735.419178636853</v>
       </c>
       <c r="Y11" t="n">
-        <v>920.5045547294914</v>
+        <v>1327.133054936506</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
         <v>79.46488968908616</v>
@@ -5190,13 +5190,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1789.512437976118</v>
+        <v>1206.30858550176</v>
       </c>
       <c r="C14" t="n">
-        <v>1351.369965159541</v>
+        <v>1206.30858550176</v>
       </c>
       <c r="D14" t="n">
-        <v>915.4601803339856</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="E14" t="n">
-        <v>481.6854354922808</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F14" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
@@ -5284,19 +5284,19 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L14" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.495958523325</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="N14" t="n">
-        <v>1149.495958523325</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="O14" t="n">
-        <v>1810.336013065103</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P14" t="n">
-        <v>2123.562040472834</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q14" t="n">
         <v>2670.060826431428</v>
@@ -5305,25 +5305,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2460.036743107704</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>2460.036743107704</v>
       </c>
       <c r="V14" t="n">
-        <v>2670.060826431428</v>
+        <v>2460.036743107704</v>
       </c>
       <c r="W14" t="n">
-        <v>2616.941025097154</v>
+        <v>2460.036743107704</v>
       </c>
       <c r="X14" t="n">
-        <v>2197.798561676464</v>
+        <v>2040.894279687015</v>
       </c>
       <c r="Y14" t="n">
-        <v>1789.512437976118</v>
+        <v>1632.608155986668</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5360,19 +5360,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N15" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O15" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P15" t="n">
         <v>1058.729261281022</v>
@@ -5427,13 +5427,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,13 +5524,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.9010479080736</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>750.3393363912985</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>584.4613435928212</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.825451691258</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.946005269713</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2146.513004522818</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1859.557496393248</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.53109197954</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1342.139337312952</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1114.719666627061</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3346.878440713112</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>3174.316729196337</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>3008.43873639786</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>2838.680732648597</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>2661.973678610354</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636181</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636181</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>5094.802844496296</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>4848.923398074751</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>4570.490397327857</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>4283.534889198288</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>4011.508484784579</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>3766.116730117991</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>3538.6970594321</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6238,16 +6238,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,19 +6703,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6946,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7399,13 +7399,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7450,13 +7450,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436392</v>
@@ -7660,40 +7660,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>4995.869235444639</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>5049.586575987362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>4919.407932317964</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>4743.071385317932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3346.878440713112</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>3174.316729196336</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>3008.438736397859</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>2838.680732648596</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>2661.973678610353</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>2496.38240363618</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
-        <v>2496.38240363618</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>2496.38240363618</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>2582.96208880087</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>3275.930425139966</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>3735.414292320879</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>4177.673095478523</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>4597.342344704306</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>4944.849238674647</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>5094.802844496295</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>4848.92339807475</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>4570.490397327856</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>4283.534889198287</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>4011.508484784578</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>3766.11673011799</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>3538.697059432099</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>226.6534083847598</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8221,16 +8221,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047208</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.5152066078572</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8455,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,7 +8695,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8932,19 +8932,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,7 +9172,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>980.0845558810993</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>388.0185734358511</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>866.2895820207509</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9895,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10360,13 +10360,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>973.8822356326327</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22558,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>369.0353499799954</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>210.8683944384771</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22609,7 +22609,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.01701577190849</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>267.5891658521433</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>97.18059852630569</v>
       </c>
     </row>
     <row r="6">
@@ -22956,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H7" t="n">
-        <v>65.48800580459427</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23026,13 +23026,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>409.7709364034303</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>336.0812019346619</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -23074,16 +23074,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>248.7791565502148</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>188.0920227695198</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>92.75806744320647</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -23557,7 +23557,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>348.2182967221452</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>110.0349065174851</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>63.43016517136702</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>208.2197249473435</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.446375214272</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.446375214272</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465871.2706068047</v>
+        <v>465871.2706068046</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465871.2706068047</v>
+        <v>465871.2706068046</v>
       </c>
     </row>
     <row r="6">
@@ -26328,7 +26328,7 @@
         <v>169095.6142289526</v>
       </c>
       <c r="G2" t="n">
-        <v>263428.7920686761</v>
+        <v>263428.792068676</v>
       </c>
       <c r="H2" t="n">
         <v>263428.7920686761</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>167396.1246670934</v>
+        <v>167396.1246670935</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>146976.4664146549</v>
+        <v>146976.466414655</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,19 +26432,19 @@
         <v>43649.82185483626</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
@@ -26456,10 +26456,10 @@
         <v>68000.69828933279</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172466.4307716863</v>
+        <v>-172961.3210002675</v>
       </c>
       <c r="C6" t="n">
-        <v>51233.26781235858</v>
+        <v>50738.37758377738</v>
       </c>
       <c r="D6" t="n">
-        <v>51233.26781235865</v>
+        <v>50738.37758377738</v>
       </c>
       <c r="E6" t="n">
-        <v>84860.86781235861</v>
+        <v>84365.97758377733</v>
       </c>
       <c r="F6" t="n">
-        <v>84860.86781235867</v>
+        <v>84365.97758377736</v>
       </c>
       <c r="G6" t="n">
-        <v>-49686.2694935426</v>
+        <v>-49709.49383292541</v>
       </c>
       <c r="H6" t="n">
-        <v>117709.8551735508</v>
+        <v>117686.6308341681</v>
       </c>
       <c r="I6" t="n">
-        <v>117709.8551735508</v>
+        <v>117686.6308341681</v>
       </c>
       <c r="J6" t="n">
-        <v>-56941.49354415534</v>
+        <v>-56964.71788353804</v>
       </c>
       <c r="K6" t="n">
-        <v>117709.8551735508</v>
+        <v>117686.6308341681</v>
       </c>
       <c r="L6" t="n">
-        <v>117709.8551735508</v>
+        <v>117686.6308341681</v>
       </c>
       <c r="M6" t="n">
-        <v>117709.8551735508</v>
+        <v>117686.6308341681</v>
       </c>
       <c r="N6" t="n">
-        <v>117709.8551735508</v>
+        <v>117686.6308341681</v>
       </c>
       <c r="O6" t="n">
-        <v>-29266.61124110408</v>
+        <v>-29289.83558048685</v>
       </c>
       <c r="P6" t="n">
-        <v>117709.8551735508</v>
+        <v>117686.6308341681</v>
       </c>
     </row>
   </sheetData>
@@ -26795,13 +26795,13 @@
         <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>226.6534083847598</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34941,16 +34941,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047208</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.5152066078572</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35175,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,7 +35415,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35652,19 +35652,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35892,7 +35892,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>980.0845558810993</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889939</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>388.0185734358511</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36606,7 +36606,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>866.2895820207509</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36615,10 +36615,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,13 +37080,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>973.8822356326327</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,13 +38189,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
